--- a/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.480439257652108</v>
+        <v>1.778033140294838</v>
       </c>
       <c r="C2">
-        <v>1.0998028315081</v>
+        <v>0.376465468811233</v>
       </c>
       <c r="D2">
-        <v>0.04086480761329625</v>
+        <v>0.3485656055488136</v>
       </c>
       <c r="E2">
-        <v>1.449649357066207</v>
+        <v>0.2475981531159661</v>
       </c>
       <c r="F2">
-        <v>2.534863775611001</v>
+        <v>6.5272347987042</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.334890449696729</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8274996833876287</v>
+        <v>0.4758480572250647</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.818819185891897</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.132382408486137</v>
+        <v>1.520519405821886</v>
       </c>
       <c r="C3">
-        <v>0.9425278621507402</v>
+        <v>0.3209828351291435</v>
       </c>
       <c r="D3">
-        <v>0.03909600438018757</v>
+        <v>0.3096937836306495</v>
       </c>
       <c r="E3">
-        <v>1.233978834719409</v>
+        <v>0.214010400022616</v>
       </c>
       <c r="F3">
-        <v>2.231270307950041</v>
+        <v>5.727792625366362</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.197416890507981</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7106826596554541</v>
+        <v>0.4061470727957328</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7013899696850032</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922532174876295</v>
+        <v>1.366676275569858</v>
       </c>
       <c r="C4">
-        <v>0.8481277631445039</v>
+        <v>0.2879026641705451</v>
       </c>
       <c r="D4">
-        <v>0.03815187945563991</v>
+        <v>0.2863643781050342</v>
       </c>
       <c r="E4">
-        <v>1.105801171464918</v>
+        <v>0.1939255072431152</v>
       </c>
       <c r="F4">
-        <v>2.051527023858682</v>
+        <v>5.248353662817721</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.116599990081156</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6403513139008012</v>
+        <v>0.3645257517151279</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6312315900343108</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.837822301753874</v>
+        <v>1.304898877114056</v>
       </c>
       <c r="C5">
-        <v>0.8101122688344731</v>
+        <v>0.2746289140690976</v>
       </c>
       <c r="D5">
-        <v>0.03779818943908708</v>
+        <v>0.2769696013883021</v>
       </c>
       <c r="E5">
-        <v>1.054453453414652</v>
+        <v>0.1858558685131513</v>
       </c>
       <c r="F5">
-        <v>1.979735554617037</v>
+        <v>5.055411298001843</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.084456746697299</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6119822125368586</v>
+        <v>0.347815164989143</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6030570528833721</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.823800508790583</v>
+        <v>1.294691729332072</v>
       </c>
       <c r="C6">
-        <v>0.8038247253824409</v>
+        <v>0.2724361837434799</v>
       </c>
       <c r="D6">
-        <v>0.03774121018386012</v>
+        <v>0.2754157487110547</v>
       </c>
       <c r="E6">
-        <v>1.045975832811436</v>
+        <v>0.1845223152872464</v>
       </c>
       <c r="F6">
-        <v>1.967896552181074</v>
+        <v>5.023508350114213</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.079164047334814</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6072875469079619</v>
+        <v>0.3450542879530261</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5984018071924879</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.921386688850589</v>
+        <v>1.365839616874297</v>
       </c>
       <c r="C7">
-        <v>0.847613350844199</v>
+        <v>0.2877228639969047</v>
       </c>
       <c r="D7">
-        <v>0.03814698945762984</v>
+        <v>0.2862372516001273</v>
       </c>
       <c r="E7">
-        <v>1.105105314876269</v>
+        <v>0.1938162362491411</v>
       </c>
       <c r="F7">
-        <v>2.05055319983704</v>
+        <v>5.245742270314537</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.116163435525849</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6399676113791912</v>
+        <v>0.3642994287990575</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6308500264955441</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.359523318508877</v>
+        <v>1.68825417476981</v>
       </c>
       <c r="C8">
-        <v>1.045065808451284</v>
+        <v>0.3571038329903899</v>
       </c>
       <c r="D8">
-        <v>0.04022247725660577</v>
+        <v>0.3350361746081347</v>
       </c>
       <c r="E8">
-        <v>1.374287817360283</v>
+        <v>0.2358925129748926</v>
       </c>
       <c r="F8">
-        <v>2.42866076207099</v>
+        <v>6.248936588953683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.286671769943467</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7868937536773615</v>
+        <v>0.4515423552094617</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.777879420263794</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.257935085022382</v>
+        <v>2.362703328547752</v>
       </c>
       <c r="C9">
-        <v>1.454290923407882</v>
+        <v>0.5031581866031729</v>
       </c>
       <c r="D9">
-        <v>0.04566590641133672</v>
+        <v>0.4361993436745308</v>
       </c>
       <c r="E9">
-        <v>1.945577031537994</v>
+        <v>0.3237250462530241</v>
       </c>
       <c r="F9">
-        <v>3.234500296103107</v>
+        <v>8.329592957293812</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.655431858171298</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.089191290407811</v>
+        <v>0.6343096868901199</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.085444685066605</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.956237339171196</v>
+        <v>2.897667324599809</v>
       </c>
       <c r="C10">
-        <v>1.776441155433076</v>
+        <v>0.6201793562082969</v>
       </c>
       <c r="D10">
-        <v>0.05092352957982627</v>
+        <v>0.5158246698926234</v>
       </c>
       <c r="E10">
-        <v>2.408480849742091</v>
+        <v>0.3932326237779833</v>
       </c>
       <c r="F10">
-        <v>3.884822310806868</v>
+        <v>9.964721394198421</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.957072809293649</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.325110494284829</v>
+        <v>0.779617561076968</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.329457903683519</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.286263412229061</v>
+        <v>3.153443117746917</v>
       </c>
       <c r="C11">
-        <v>1.929963107804326</v>
+        <v>0.6765504616973601</v>
       </c>
       <c r="D11">
-        <v>0.05371209811031719</v>
+        <v>0.5537447817336272</v>
       </c>
       <c r="E11">
-        <v>2.633384285538639</v>
+        <v>0.4264179757640107</v>
       </c>
       <c r="F11">
-        <v>4.198685073998263</v>
+        <v>10.74204935060112</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.10371152653957</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.436905253017571</v>
+        <v>0.8492134675527154</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.446153788827786</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.413439391066277</v>
+        <v>3.252484565050793</v>
       </c>
       <c r="C12">
-        <v>1.989344962211362</v>
+        <v>0.6984559086015167</v>
       </c>
       <c r="D12">
-        <v>0.0548385873105417</v>
+        <v>0.5684047404059811</v>
       </c>
       <c r="E12">
-        <v>2.72115183074078</v>
+        <v>0.4392598981473981</v>
       </c>
       <c r="F12">
-        <v>4.320692943256944</v>
+        <v>11.0422887883505</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.160883302349134</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.480037240752921</v>
+        <v>0.8761847208995448</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.491346666579801</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.385944070389826</v>
+        <v>3.23104981341703</v>
       </c>
       <c r="C13">
-        <v>1.976496111774907</v>
+        <v>0.6937113548906666</v>
       </c>
       <c r="D13">
-        <v>0.05459259123266236</v>
+        <v>0.565233077379645</v>
       </c>
       <c r="E13">
-        <v>2.7021236989318</v>
+        <v>0.4364810048197896</v>
       </c>
       <c r="F13">
-        <v>4.294265781168434</v>
+        <v>10.97734600209293</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.148492006807928</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.470709690078735</v>
+        <v>0.8703464709199267</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.4815656367971</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.296679361399924</v>
+        <v>3.161544954986027</v>
       </c>
       <c r="C14">
-        <v>1.934821918270984</v>
+        <v>0.6783407347191712</v>
       </c>
       <c r="D14">
-        <v>0.05380327286958675</v>
+        <v>0.5549444820676399</v>
       </c>
       <c r="E14">
-        <v>2.640549242544736</v>
+        <v>0.4274686462250301</v>
       </c>
       <c r="F14">
-        <v>4.208655851640742</v>
+        <v>10.76662548888703</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.108380284253599</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.440436754334186</v>
+        <v>0.8514193082202297</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.449850549470298</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.242303095882789</v>
+        <v>3.119268961627256</v>
       </c>
       <c r="C15">
-        <v>1.909465744887257</v>
+        <v>0.6690021632430501</v>
       </c>
       <c r="D15">
-        <v>0.05332943141484492</v>
+        <v>0.5486834045783553</v>
       </c>
       <c r="E15">
-        <v>2.603190299596434</v>
+        <v>0.4219858366763489</v>
       </c>
       <c r="F15">
-        <v>4.156646898617538</v>
+        <v>10.6383543028673</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.084034252530316</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.42200275154228</v>
+        <v>0.8399099916150945</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.430560824280931</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.934952437328548</v>
+        <v>2.881233983478467</v>
       </c>
       <c r="C16">
-        <v>1.766568106267982</v>
+        <v>0.616567217665164</v>
       </c>
       <c r="D16">
-        <v>0.05075035402484218</v>
+        <v>0.5133852363570668</v>
       </c>
       <c r="E16">
-        <v>2.39411446379593</v>
+        <v>0.3910994601665152</v>
       </c>
       <c r="F16">
-        <v>3.864718854556855</v>
+        <v>9.914681726494109</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.947702477280799</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.317906933114784</v>
+        <v>0.7751488779074478</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.321961016908361</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.749844703220276</v>
+        <v>2.738647689013078</v>
       </c>
       <c r="C17">
-        <v>1.680848658114485</v>
+        <v>0.5852736086078494</v>
       </c>
       <c r="D17">
-        <v>0.04927842831856566</v>
+        <v>0.492202621808417</v>
       </c>
       <c r="E17">
-        <v>2.269867853781051</v>
+        <v>0.3725854516653939</v>
       </c>
       <c r="F17">
-        <v>3.69061264854426</v>
+        <v>9.480007969677729</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.866667126144407</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.255293374484197</v>
+        <v>0.7363894485092004</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.25691649621524</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.64450952328815</v>
+        <v>2.657776662875335</v>
       </c>
       <c r="C18">
-        <v>1.632184272446352</v>
+        <v>0.5675620735297287</v>
       </c>
       <c r="D18">
-        <v>0.04846820283261621</v>
+        <v>0.480174848993272</v>
       </c>
       <c r="E18">
-        <v>2.19971388182671</v>
+        <v>0.3620805668898726</v>
       </c>
       <c r="F18">
-        <v>3.592128574089827</v>
+        <v>9.233073889727848</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.820924132118336</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.219689902477384</v>
+        <v>0.7144169497863331</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.220027543170644</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.609028060960725</v>
+        <v>2.630580155132066</v>
       </c>
       <c r="C19">
-        <v>1.615810535147034</v>
+        <v>0.5616117367751485</v>
       </c>
       <c r="D19">
-        <v>0.04819976407492987</v>
+        <v>0.4761276864043964</v>
       </c>
       <c r="E19">
-        <v>2.17617142282657</v>
+        <v>0.3585471332978472</v>
       </c>
       <c r="F19">
-        <v>3.559052893162885</v>
+        <v>9.149965810270345</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.805577309394792</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.207701439726122</v>
+        <v>0.7070294341664791</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.207622364060697</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.769429590696973</v>
+        <v>2.753705530123852</v>
       </c>
       <c r="C20">
-        <v>1.689905889515046</v>
+        <v>0.5885743783569524</v>
       </c>
       <c r="D20">
-        <v>0.04943126396116782</v>
+        <v>0.494441038284549</v>
       </c>
       <c r="E20">
-        <v>2.282955095479068</v>
+        <v>0.3745410759440162</v>
       </c>
       <c r="F20">
-        <v>3.70897133122827</v>
+        <v>9.525954021584454</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.875201910478651</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.261915226098537</v>
+        <v>0.7404814885202171</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.263785257327129</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.322834962359593</v>
+        <v>3.181897337346186</v>
       </c>
       <c r="C21">
-        <v>1.947026598316086</v>
+        <v>0.6828393157613277</v>
       </c>
       <c r="D21">
-        <v>0.05403307724134265</v>
+        <v>0.5579578342239984</v>
       </c>
       <c r="E21">
-        <v>2.658559547187977</v>
+        <v>0.4301078708560837</v>
       </c>
       <c r="F21">
-        <v>4.233710854276524</v>
+        <v>10.8283500331857</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.120114875599569</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.449305599744363</v>
+        <v>0.8569609064712083</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.45913717164602</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.697622631113688</v>
+        <v>3.474728177117868</v>
       </c>
       <c r="C22">
-        <v>2.122490794435691</v>
+        <v>0.7477726982348258</v>
       </c>
       <c r="D22">
-        <v>0.05746051672516472</v>
+        <v>0.601255674199308</v>
       </c>
       <c r="E22">
-        <v>2.919562529410371</v>
+        <v>0.4680601401216364</v>
       </c>
       <c r="F22">
-        <v>4.595403293698098</v>
+        <v>11.71448465455711</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.289938004222947</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.576524032578007</v>
+        <v>0.9367535015252884</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.5927701398479</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.496226671491229</v>
+        <v>3.317096602171262</v>
       </c>
       <c r="C23">
-        <v>2.028067629638201</v>
+        <v>0.7127702748299214</v>
       </c>
       <c r="D23">
-        <v>0.05558744295552742</v>
+        <v>0.5779617293993056</v>
       </c>
       <c r="E23">
-        <v>2.778622591954274</v>
+        <v>0.4476352074759262</v>
       </c>
       <c r="F23">
-        <v>4.400426674635412</v>
+        <v>11.23793081054396</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.198294884575517</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.508130332782315</v>
+        <v>0.8937869294490568</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.520831212143833</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.760571912067917</v>
+        <v>2.746894471223698</v>
       </c>
       <c r="C24">
-        <v>1.685809211438482</v>
+        <v>0.5870812373261174</v>
       </c>
       <c r="D24">
-        <v>0.0493620557924217</v>
+        <v>0.4934285858224428</v>
       </c>
       <c r="E24">
-        <v>2.277034414711423</v>
+        <v>0.3736565086783088</v>
       </c>
       <c r="F24">
-        <v>3.700666390889836</v>
+        <v>9.505172651594535</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.871340722447485</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.258920271279308</v>
+        <v>0.7386305174008996</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.260678327657104</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.009357810079166</v>
+        <v>2.17444826478652</v>
       </c>
       <c r="C25">
-        <v>1.34047894134477</v>
+        <v>0.4622399192219575</v>
       </c>
       <c r="D25">
-        <v>0.04400768855074944</v>
+        <v>0.4080621642409454</v>
       </c>
       <c r="E25">
-        <v>1.784852972573788</v>
+        <v>0.2992323173610885</v>
       </c>
       <c r="F25">
-        <v>3.007834211701578</v>
+        <v>7.751078558115523</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.551081933437388</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.005412652624202</v>
+        <v>0.5832511823899154</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.9995907726806408</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.778033140294838</v>
+        <v>1.090177988594974</v>
       </c>
       <c r="C2">
-        <v>0.376465468811233</v>
+        <v>0.1773379547711613</v>
       </c>
       <c r="D2">
-        <v>0.3485656055488136</v>
+        <v>0.05168449439550216</v>
       </c>
       <c r="E2">
-        <v>0.2475981531159661</v>
+        <v>1.383532550444983</v>
       </c>
       <c r="F2">
-        <v>6.5272347987042</v>
+        <v>0.5450687678099584</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4758480572250647</v>
+        <v>1.170672924044339</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.818819185891897</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.588286861067616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.520519405821886</v>
+        <v>0.947230737358808</v>
       </c>
       <c r="C3">
-        <v>0.3209828351291435</v>
+        <v>0.1599092110032529</v>
       </c>
       <c r="D3">
-        <v>0.3096937836306495</v>
+        <v>0.04728767669340783</v>
       </c>
       <c r="E3">
-        <v>0.214010400022616</v>
+        <v>1.188390346628836</v>
       </c>
       <c r="F3">
-        <v>5.727792625366362</v>
+        <v>0.5112503398841</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4061470727957328</v>
+        <v>1.021451238526112</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7013899696850032</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.527004014964234</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.366676275569858</v>
+        <v>0.8597566364698253</v>
       </c>
       <c r="C4">
-        <v>0.2879026641705451</v>
+        <v>0.1492139293718537</v>
       </c>
       <c r="D4">
-        <v>0.2863643781050342</v>
+        <v>0.04457584564107719</v>
       </c>
       <c r="E4">
-        <v>0.1939255072431152</v>
+        <v>1.070720680900692</v>
       </c>
       <c r="F4">
-        <v>5.248353662817721</v>
+        <v>0.4918063936875043</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3645257517151279</v>
+        <v>0.9300430821374164</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6312315900343108</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.493716962852943</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.304898877114056</v>
+        <v>0.8241655912129318</v>
       </c>
       <c r="C5">
-        <v>0.2746289140690976</v>
+        <v>0.1448548836051913</v>
       </c>
       <c r="D5">
-        <v>0.2769696013883021</v>
+        <v>0.0434675449515467</v>
       </c>
       <c r="E5">
-        <v>0.1858558685131513</v>
+        <v>1.023228034671831</v>
       </c>
       <c r="F5">
-        <v>5.055411298001843</v>
+        <v>0.4841926316125793</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.347815164989143</v>
+        <v>0.8928281151468695</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6030570528833721</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.481174528039588</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.294691729332072</v>
+        <v>0.8182585358700578</v>
       </c>
       <c r="C6">
-        <v>0.2724361837434799</v>
+        <v>0.1441309696681543</v>
       </c>
       <c r="D6">
-        <v>0.2754157487110547</v>
+        <v>0.04328331477402969</v>
       </c>
       <c r="E6">
-        <v>0.1845223152872464</v>
+        <v>1.0153673626901</v>
       </c>
       <c r="F6">
-        <v>5.023508350114213</v>
+        <v>0.482946457806392</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3450542879530261</v>
+        <v>0.8866501483927607</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5984018071924879</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.479151670006644</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.365839616874297</v>
+        <v>0.8592764433127229</v>
       </c>
       <c r="C7">
-        <v>0.2877228639969047</v>
+        <v>0.1491551470302284</v>
       </c>
       <c r="D7">
-        <v>0.2862372516001273</v>
+        <v>0.04456091187966393</v>
       </c>
       <c r="E7">
-        <v>0.1938162362491411</v>
+        <v>1.070078424171228</v>
       </c>
       <c r="F7">
-        <v>5.245742270314537</v>
+        <v>0.4917024859090517</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3642994287990575</v>
+        <v>0.9295410725702027</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6308500264955441</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.493543760202243</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.68825417476981</v>
+        <v>1.040816373194303</v>
       </c>
       <c r="C8">
-        <v>0.3571038329903899</v>
+        <v>0.1713259169111438</v>
       </c>
       <c r="D8">
-        <v>0.3350361746081347</v>
+        <v>0.05017090080013276</v>
       </c>
       <c r="E8">
-        <v>0.2358925129748926</v>
+        <v>1.315750339845707</v>
       </c>
       <c r="F8">
-        <v>6.248936588953683</v>
+        <v>0.5331201906299015</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4515423552094617</v>
+        <v>1.119164625695674</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.777879420263794</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.566212497626225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.362703328547752</v>
+        <v>1.400113579760358</v>
       </c>
       <c r="C9">
-        <v>0.5031581866031729</v>
+        <v>0.2149591222686382</v>
       </c>
       <c r="D9">
-        <v>0.4361993436745308</v>
+        <v>0.06108371841116877</v>
       </c>
       <c r="E9">
-        <v>0.3237250462530241</v>
+        <v>1.818636572995374</v>
       </c>
       <c r="F9">
-        <v>8.329592957293812</v>
+        <v>0.6259043675829972</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6343096868901199</v>
+        <v>1.493683029743892</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.085444685066605</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.746529387937557</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.897667324599809</v>
+        <v>1.667560529698221</v>
       </c>
       <c r="C10">
-        <v>0.6201793562082969</v>
+        <v>0.2472816510893807</v>
       </c>
       <c r="D10">
-        <v>0.5158246698926234</v>
+        <v>0.06906119344570527</v>
       </c>
       <c r="E10">
-        <v>0.3932326237779833</v>
+        <v>2.207355954901459</v>
       </c>
       <c r="F10">
-        <v>9.964721394198421</v>
+        <v>0.702764360068258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.779617561076968</v>
+        <v>1.771958412994195</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.329457903683519</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.90716700052738</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.153443117746917</v>
+        <v>1.790345013877896</v>
       </c>
       <c r="C11">
-        <v>0.6765504616973601</v>
+        <v>0.2620866110255236</v>
       </c>
       <c r="D11">
-        <v>0.5537447817336272</v>
+        <v>0.07268517221616122</v>
       </c>
       <c r="E11">
-        <v>0.4264179757640107</v>
+        <v>2.390014085200548</v>
       </c>
       <c r="F11">
-        <v>10.74204935060112</v>
+        <v>0.7400218321189413</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8492134675527154</v>
+        <v>1.899601012973591</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.446153788827786</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.987622585369763</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.252484565050793</v>
+        <v>1.83703468654636</v>
       </c>
       <c r="C12">
-        <v>0.6984559086015167</v>
+        <v>0.2677114307984283</v>
       </c>
       <c r="D12">
-        <v>0.5684047404059811</v>
+        <v>0.07405707460423372</v>
       </c>
       <c r="E12">
-        <v>0.4392598981473981</v>
+        <v>2.460177519939677</v>
       </c>
       <c r="F12">
-        <v>11.0422887883505</v>
+        <v>0.7544975123607998</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8761847208995448</v>
+        <v>1.94812151238321</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.491346666579801</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.01926780996115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.23104981341703</v>
+        <v>1.826970054094375</v>
       </c>
       <c r="C13">
-        <v>0.6937113548906666</v>
+        <v>0.2664991346447323</v>
       </c>
       <c r="D13">
-        <v>0.565233077379645</v>
+        <v>0.07376162436905531</v>
       </c>
       <c r="E13">
-        <v>0.4364810048197896</v>
+        <v>2.445019607939585</v>
       </c>
       <c r="F13">
-        <v>10.97734600209293</v>
+        <v>0.7513629557299311</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8703464709199267</v>
+        <v>1.937662955038746</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.4815656367971</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.012398039735189</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.161544954986027</v>
+        <v>1.794182117812255</v>
       </c>
       <c r="C14">
-        <v>0.6783407347191712</v>
+        <v>0.2625489733110555</v>
       </c>
       <c r="D14">
-        <v>0.5549444820676399</v>
+        <v>0.07279804601139972</v>
       </c>
       <c r="E14">
-        <v>0.4274686462250301</v>
+        <v>2.395765565060032</v>
       </c>
       <c r="F14">
-        <v>10.76662548888703</v>
+        <v>0.7412051712878025</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8514193082202297</v>
+        <v>1.903588911308759</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.449850549470298</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.990201725859805</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.119268961627256</v>
+        <v>1.774124828747546</v>
       </c>
       <c r="C15">
-        <v>0.6690021632430501</v>
+        <v>0.260131919740914</v>
       </c>
       <c r="D15">
-        <v>0.5486834045783553</v>
+        <v>0.07220778132958827</v>
       </c>
       <c r="E15">
-        <v>0.4219858366763489</v>
+        <v>2.365730592205807</v>
       </c>
       <c r="F15">
-        <v>10.6383543028673</v>
+        <v>0.7350322100736122</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8399099916150945</v>
+        <v>1.882742723875452</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.430560824280931</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.976762989560257</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881233983478467</v>
+        <v>1.659561554011105</v>
       </c>
       <c r="C16">
-        <v>0.616567217665164</v>
+        <v>0.2463164766388815</v>
       </c>
       <c r="D16">
-        <v>0.5133852363570668</v>
+        <v>0.06882428197525314</v>
       </c>
       <c r="E16">
-        <v>0.3910994601665152</v>
+        <v>2.195549026699496</v>
       </c>
       <c r="F16">
-        <v>9.914681726494109</v>
+        <v>0.7003787516725453</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7751488779074478</v>
+        <v>1.763640657592219</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.321961016908361</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.902067301679693</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.738647689013078</v>
+        <v>1.589590117687294</v>
       </c>
       <c r="C17">
-        <v>0.5852736086078494</v>
+        <v>0.2378697531958238</v>
       </c>
       <c r="D17">
-        <v>0.492202621808417</v>
+        <v>0.06674753393930644</v>
       </c>
       <c r="E17">
-        <v>0.3725854516653939</v>
+        <v>2.092746072251501</v>
       </c>
       <c r="F17">
-        <v>9.480007969677729</v>
+        <v>0.6797327904521211</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7363894485092004</v>
+        <v>1.690868047767765</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.25691649621524</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.858213982832098</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.657776662875335</v>
+        <v>1.549447827296348</v>
       </c>
       <c r="C18">
-        <v>0.5675620735297287</v>
+        <v>0.2330206931132892</v>
       </c>
       <c r="D18">
-        <v>0.480174848993272</v>
+        <v>0.0655525513300006</v>
       </c>
       <c r="E18">
-        <v>0.3620805668898726</v>
+        <v>2.034154566969931</v>
       </c>
       <c r="F18">
-        <v>9.233073889727848</v>
+        <v>0.6680712153949315</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7144169497863331</v>
+        <v>1.649108150543839</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.220027543170644</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.833677753979117</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.630580155132066</v>
+        <v>1.535873161202943</v>
       </c>
       <c r="C19">
-        <v>0.5616117367751485</v>
+        <v>0.2313803643478707</v>
       </c>
       <c r="D19">
-        <v>0.4761276864043964</v>
+        <v>0.06514785761750375</v>
       </c>
       <c r="E19">
-        <v>0.3585471332978472</v>
+        <v>2.014404445572026</v>
       </c>
       <c r="F19">
-        <v>9.149965810270345</v>
+        <v>0.6641583868587304</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7070294341664791</v>
+        <v>1.63498465867562</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.207622364060697</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.825484829002107</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.753705530123852</v>
+        <v>1.597027766341142</v>
       </c>
       <c r="C20">
-        <v>0.5885743783569524</v>
+        <v>0.2387679346227145</v>
       </c>
       <c r="D20">
-        <v>0.494441038284549</v>
+        <v>0.06696865616709147</v>
       </c>
       <c r="E20">
-        <v>0.3745410759440162</v>
+        <v>2.103632866304224</v>
       </c>
       <c r="F20">
-        <v>9.525954021584454</v>
+        <v>0.6819082399824623</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7404814885202171</v>
+        <v>1.698604547236272</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.263785257327129</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.862810326463318</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.181897337346186</v>
+        <v>1.803807192246751</v>
       </c>
       <c r="C21">
-        <v>0.6828393157613277</v>
+        <v>0.2637086956130901</v>
       </c>
       <c r="D21">
-        <v>0.5579578342239984</v>
+        <v>0.07308108114683876</v>
       </c>
       <c r="E21">
-        <v>0.4301078708560837</v>
+        <v>2.410204321721849</v>
       </c>
       <c r="F21">
-        <v>10.8283500331857</v>
+        <v>0.7441784805873795</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8569609064712083</v>
+        <v>1.913591978266311</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.45913717164602</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.996688345919665</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.474728177117868</v>
+        <v>1.940097007773659</v>
       </c>
       <c r="C22">
-        <v>0.7477726982348258</v>
+        <v>0.2801189436474516</v>
       </c>
       <c r="D22">
-        <v>0.601255674199308</v>
+        <v>0.07707362347760238</v>
       </c>
       <c r="E22">
-        <v>0.4680601401216364</v>
+        <v>2.616453039377703</v>
       </c>
       <c r="F22">
-        <v>11.71448465455711</v>
+        <v>0.7870354071284993</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9367535015252884</v>
+        <v>2.055195263024217</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.5927701398479</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.091117503192464</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.317096602171262</v>
+        <v>1.86723992148714</v>
       </c>
       <c r="C23">
-        <v>0.7127702748299214</v>
+        <v>0.2713489941924934</v>
       </c>
       <c r="D23">
-        <v>0.5779617293993056</v>
+        <v>0.07494282826943532</v>
       </c>
       <c r="E23">
-        <v>0.4476352074759262</v>
+        <v>2.505778239244748</v>
       </c>
       <c r="F23">
-        <v>11.23793081054396</v>
+        <v>0.7639509282682297</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8937869294490568</v>
+        <v>1.979506585772327</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.520831212143833</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.040042695033662</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.746894471223698</v>
+        <v>1.593664942363375</v>
       </c>
       <c r="C24">
-        <v>0.5870812373261174</v>
+        <v>0.2383618450584066</v>
       </c>
       <c r="D24">
-        <v>0.4934285858224428</v>
+        <v>0.06686869004635554</v>
       </c>
       <c r="E24">
-        <v>0.3736565086783088</v>
+        <v>2.098709365759191</v>
       </c>
       <c r="F24">
-        <v>9.505172651594535</v>
+        <v>0.6809240739524824</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7386305174008996</v>
+        <v>1.695106635219503</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.260678327657104</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.860730223780848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.17444826478652</v>
+        <v>1.302418062370322</v>
       </c>
       <c r="C25">
-        <v>0.4622399192219575</v>
+        <v>0.2031219459877462</v>
       </c>
       <c r="D25">
-        <v>0.4080621642409454</v>
+        <v>0.0581396524540736</v>
       </c>
       <c r="E25">
-        <v>0.2992323173610885</v>
+        <v>1.679716579645884</v>
       </c>
       <c r="F25">
-        <v>7.751078558115523</v>
+        <v>0.5994047497525443</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5832511823899154</v>
+        <v>1.391934608331468</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9995907726806408</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.693200545200938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.090177988594974</v>
+        <v>0.369278686223538</v>
       </c>
       <c r="C2">
-        <v>0.1773379547711613</v>
+        <v>0.06750128626842411</v>
       </c>
       <c r="D2">
-        <v>0.05168449439550216</v>
+        <v>0.02643641156463872</v>
       </c>
       <c r="E2">
-        <v>1.383532550444983</v>
+        <v>0.4159123285804327</v>
       </c>
       <c r="F2">
-        <v>0.5450687678099584</v>
+        <v>0.7099491187442979</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.170672924044339</v>
+        <v>0.3603870442761661</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.588286861067616</v>
+        <v>2.425853481378994</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.947230737358808</v>
+        <v>0.3267623426023363</v>
       </c>
       <c r="C3">
-        <v>0.1599092110032529</v>
+        <v>0.06179291441249291</v>
       </c>
       <c r="D3">
-        <v>0.04728767669340783</v>
+        <v>0.02481443763277014</v>
       </c>
       <c r="E3">
-        <v>1.188390346628836</v>
+        <v>0.3628992592812068</v>
       </c>
       <c r="F3">
-        <v>0.5112503398841</v>
+        <v>0.7073304550515758</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.021451238526112</v>
+        <v>0.3148674128965752</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.527004014964234</v>
+        <v>2.431571157312789</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8597566364698253</v>
+        <v>0.3006692369605446</v>
       </c>
       <c r="C4">
-        <v>0.1492139293718537</v>
+        <v>0.05826342446459876</v>
       </c>
       <c r="D4">
-        <v>0.04457584564107719</v>
+        <v>0.02381009723378469</v>
       </c>
       <c r="E4">
-        <v>1.070720680900692</v>
+        <v>0.3304359795848484</v>
       </c>
       <c r="F4">
-        <v>0.4918063936875043</v>
+        <v>0.7062327119439757</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9300430821374164</v>
+        <v>0.2868644905344411</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.493716962852943</v>
+        <v>2.436779632266536</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8241655912129318</v>
+        <v>0.2900395173022901</v>
       </c>
       <c r="C5">
-        <v>0.1448548836051913</v>
+        <v>0.05681901421743873</v>
       </c>
       <c r="D5">
-        <v>0.0434675449515467</v>
+        <v>0.02339872983109359</v>
       </c>
       <c r="E5">
-        <v>1.023228034671831</v>
+        <v>0.3172271342781698</v>
       </c>
       <c r="F5">
-        <v>0.4841926316125793</v>
+        <v>0.7059133797578028</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8928281151468695</v>
+        <v>0.2754399761403761</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.481174528039588</v>
+        <v>2.439328064159156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8182585358700578</v>
+        <v>0.2882746793737567</v>
       </c>
       <c r="C6">
-        <v>0.1441309696681543</v>
+        <v>0.05657880328010378</v>
       </c>
       <c r="D6">
-        <v>0.04328331477402969</v>
+        <v>0.02333029727888913</v>
       </c>
       <c r="E6">
-        <v>1.0153673626901</v>
+        <v>0.3150349875118934</v>
       </c>
       <c r="F6">
-        <v>0.482946457806392</v>
+        <v>0.7058680783579803</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8866501483927607</v>
+        <v>0.2735421652580783</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.479151670006644</v>
+        <v>2.439776925921819</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8592764433127229</v>
+        <v>0.3005258664247776</v>
       </c>
       <c r="C7">
-        <v>0.1491551470302284</v>
+        <v>0.05824396932864317</v>
       </c>
       <c r="D7">
-        <v>0.04456091187966393</v>
+        <v>0.02380455781059965</v>
       </c>
       <c r="E7">
-        <v>1.070078424171228</v>
+        <v>0.3302577608487383</v>
       </c>
       <c r="F7">
-        <v>0.4917024859090517</v>
+        <v>0.7062278873820702</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9295410725702027</v>
+        <v>0.2867104680244665</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.493543760202243</v>
+        <v>2.436812278036115</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040816373194303</v>
+        <v>0.3546167587350624</v>
       </c>
       <c r="C8">
-        <v>0.1713259169111438</v>
+        <v>0.06553816001786572</v>
       </c>
       <c r="D8">
-        <v>0.05017090080013276</v>
+        <v>0.02587892582896956</v>
       </c>
       <c r="E8">
-        <v>1.315750339845707</v>
+        <v>0.3976143566367938</v>
       </c>
       <c r="F8">
-        <v>0.5331201906299015</v>
+        <v>0.7089401619904407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.119164625695674</v>
+        <v>0.3447032443233127</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.566212497626225</v>
+        <v>2.427471956429031</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.400113579760358</v>
+        <v>0.4607732036895413</v>
       </c>
       <c r="C9">
-        <v>0.2149591222686382</v>
+        <v>0.0796457980496541</v>
       </c>
       <c r="D9">
-        <v>0.06108371841116877</v>
+        <v>0.02987854830368519</v>
       </c>
       <c r="E9">
-        <v>1.818636572995374</v>
+        <v>0.5304715718473005</v>
       </c>
       <c r="F9">
-        <v>0.6259043675829972</v>
+        <v>0.7183200586844052</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.493683029743892</v>
+        <v>0.4579889468427893</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.746529387937557</v>
+        <v>2.422674350482254</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667560529698221</v>
+        <v>0.538810212772205</v>
       </c>
       <c r="C10">
-        <v>0.2472816510893807</v>
+        <v>0.08988985053767351</v>
       </c>
       <c r="D10">
-        <v>0.06906119344570527</v>
+        <v>0.03277412581060446</v>
       </c>
       <c r="E10">
-        <v>2.207355954901459</v>
+        <v>0.6286731617453114</v>
       </c>
       <c r="F10">
-        <v>0.702764360068258</v>
+        <v>0.7277079534868562</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.771958412994195</v>
+        <v>0.5409453036400578</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.90716700052738</v>
+        <v>2.42746075108019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.790345013877896</v>
+        <v>0.5743197598497147</v>
       </c>
       <c r="C11">
-        <v>0.2620866110255236</v>
+        <v>0.09452372209453586</v>
       </c>
       <c r="D11">
-        <v>0.07268517221616122</v>
+        <v>0.03408180682819761</v>
       </c>
       <c r="E11">
-        <v>2.390014085200548</v>
+        <v>0.6735028481930811</v>
       </c>
       <c r="F11">
-        <v>0.7400218321189413</v>
+        <v>0.7325254296817718</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.899601012973591</v>
+        <v>0.5786236393819877</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.987622585369763</v>
+        <v>2.431458261238959</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.83703468654636</v>
+        <v>0.5877674948827689</v>
       </c>
       <c r="C12">
-        <v>0.2677114307984283</v>
+        <v>0.09627464524143647</v>
       </c>
       <c r="D12">
-        <v>0.07405707460423372</v>
+        <v>0.0345755930863163</v>
       </c>
       <c r="E12">
-        <v>2.460177519939677</v>
+        <v>0.6905033027698693</v>
       </c>
       <c r="F12">
-        <v>0.7544975123607998</v>
+        <v>0.7344286564715787</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.94812151238321</v>
+        <v>0.5928827030609227</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.01926780996115</v>
+        <v>2.4332349316457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.826970054094375</v>
+        <v>0.5848712448268714</v>
       </c>
       <c r="C13">
-        <v>0.2664991346447323</v>
+        <v>0.09589772354335935</v>
       </c>
       <c r="D13">
-        <v>0.07376162436905531</v>
+        <v>0.03446931036020828</v>
       </c>
       <c r="E13">
-        <v>2.445019607939585</v>
+        <v>0.686840835426068</v>
       </c>
       <c r="F13">
-        <v>0.7513629557299311</v>
+        <v>0.7340152460770497</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.937662955038746</v>
+        <v>0.5898121613913645</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.012398039735189</v>
+        <v>2.432840582747644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.794182117812255</v>
+        <v>0.5754260946169438</v>
       </c>
       <c r="C14">
-        <v>0.2625489733110555</v>
+        <v>0.09466784854060961</v>
       </c>
       <c r="D14">
-        <v>0.07279804601139972</v>
+        <v>0.03412245925307644</v>
       </c>
       <c r="E14">
-        <v>2.395765565060032</v>
+        <v>0.674900985891199</v>
       </c>
       <c r="F14">
-        <v>0.7412051712878025</v>
+        <v>0.7326804251625418</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.903588911308759</v>
+        <v>0.5797969220361665</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.990201725859805</v>
+        <v>2.43159915339146</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.774124828747546</v>
+        <v>0.5696407906200704</v>
       </c>
       <c r="C15">
-        <v>0.260131919740914</v>
+        <v>0.09391401501756036</v>
       </c>
       <c r="D15">
-        <v>0.07220778132958827</v>
+        <v>0.03390981908308532</v>
       </c>
       <c r="E15">
-        <v>2.365730592205807</v>
+        <v>0.6675907181106737</v>
       </c>
       <c r="F15">
-        <v>0.7350322100736122</v>
+        <v>0.7318731001349335</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.882742723875452</v>
+        <v>0.5736611264520377</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.976762989560257</v>
+        <v>2.430873014034944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.659561554011105</v>
+        <v>0.5364897484143398</v>
       </c>
       <c r="C16">
-        <v>0.2463164766388815</v>
+        <v>0.08958648412675529</v>
       </c>
       <c r="D16">
-        <v>0.06882428197525314</v>
+        <v>0.03268847110424389</v>
       </c>
       <c r="E16">
-        <v>2.195549026699496</v>
+        <v>0.6257467554810319</v>
       </c>
       <c r="F16">
-        <v>0.7003787516725453</v>
+        <v>0.7274041513734488</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.763640657592219</v>
+        <v>0.5384817130796762</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.902067301679693</v>
+        <v>2.427236229956179</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.589590117687294</v>
+        <v>0.5161549529773879</v>
       </c>
       <c r="C17">
-        <v>0.2378697531958238</v>
+        <v>0.08692493365489895</v>
       </c>
       <c r="D17">
-        <v>0.06674753393930644</v>
+        <v>0.03193674841013205</v>
       </c>
       <c r="E17">
-        <v>2.092746072251501</v>
+        <v>0.6001184060109779</v>
       </c>
       <c r="F17">
-        <v>0.6797327904521211</v>
+        <v>0.7248028866342224</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.690868047767765</v>
+        <v>0.5168848815781359</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.858213982832098</v>
+        <v>2.425472192730808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.549447827296348</v>
+        <v>0.5044598935531042</v>
       </c>
       <c r="C18">
-        <v>0.2330206931132892</v>
+        <v>0.08539161750429969</v>
       </c>
       <c r="D18">
-        <v>0.0655525513300006</v>
+        <v>0.03150348220748356</v>
       </c>
       <c r="E18">
-        <v>2.034154566969931</v>
+        <v>0.5853923531770278</v>
       </c>
       <c r="F18">
-        <v>0.6680712153949315</v>
+        <v>0.7233581637360658</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.649108150543839</v>
+        <v>0.5044574342174997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.833677753979117</v>
+        <v>2.424628816657702</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.535873161202943</v>
+        <v>0.500500327919724</v>
       </c>
       <c r="C19">
-        <v>0.2313803643478707</v>
+        <v>0.08487204175173702</v>
       </c>
       <c r="D19">
-        <v>0.06514785761750375</v>
+        <v>0.0313566329935</v>
       </c>
       <c r="E19">
-        <v>2.014404445572026</v>
+        <v>0.5804088339549196</v>
       </c>
       <c r="F19">
-        <v>0.6641583868587304</v>
+        <v>0.7228778334412738</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.63498465867562</v>
+        <v>0.500248779034365</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.825484829002107</v>
+        <v>2.424372641221453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.597027766341142</v>
+        <v>0.5183195285641773</v>
       </c>
       <c r="C20">
-        <v>0.2387679346227145</v>
+        <v>0.0872085155361475</v>
       </c>
       <c r="D20">
-        <v>0.06696865616709147</v>
+        <v>0.03201686346714894</v>
       </c>
       <c r="E20">
-        <v>2.103632866304224</v>
+        <v>0.6028450535715706</v>
       </c>
       <c r="F20">
-        <v>0.6819082399824623</v>
+        <v>0.7250744679570147</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.698604547236272</v>
+        <v>0.5191844757123079</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.862810326463318</v>
+        <v>2.425642245181734</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803807192246751</v>
+        <v>0.5782003392407375</v>
       </c>
       <c r="C21">
-        <v>0.2637086956130901</v>
+        <v>0.09502919684966571</v>
       </c>
       <c r="D21">
-        <v>0.07308108114683876</v>
+        <v>0.03422437620519503</v>
       </c>
       <c r="E21">
-        <v>2.410204321721849</v>
+        <v>0.6784073317457597</v>
       </c>
       <c r="F21">
-        <v>0.7441784805873795</v>
+        <v>0.7330703491592914</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.913591978266311</v>
+        <v>0.5827388856736775</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.996688345919665</v>
+        <v>2.431956646954234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.940097007773659</v>
+        <v>0.6173417845366771</v>
       </c>
       <c r="C22">
-        <v>0.2801189436474516</v>
+        <v>0.1001181529368154</v>
       </c>
       <c r="D22">
-        <v>0.07707362347760238</v>
+        <v>0.03565891356843309</v>
       </c>
       <c r="E22">
-        <v>2.616453039377703</v>
+        <v>0.727934868665173</v>
       </c>
       <c r="F22">
-        <v>0.7870354071284993</v>
+        <v>0.7387564645732709</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.055195263024217</v>
+        <v>0.6242232693227834</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.091117503192464</v>
+        <v>2.437616399496534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.86723992148714</v>
+        <v>0.5964508569768725</v>
       </c>
       <c r="C23">
-        <v>0.2713489941924934</v>
+        <v>0.09740414103167438</v>
       </c>
       <c r="D23">
-        <v>0.07494282826943532</v>
+        <v>0.03489403523912671</v>
       </c>
       <c r="E23">
-        <v>2.505778239244748</v>
+        <v>0.7014873838633662</v>
       </c>
       <c r="F23">
-        <v>0.7639509282682297</v>
+        <v>0.7356794526076555</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.979506585772327</v>
+        <v>0.602087180787521</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.040042695033662</v>
+        <v>2.434455034506044</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.593664942363375</v>
+        <v>0.5173409373524009</v>
       </c>
       <c r="C24">
-        <v>0.2383618450584066</v>
+        <v>0.08708031799307037</v>
       </c>
       <c r="D24">
-        <v>0.06686869004635554</v>
+        <v>0.031980646845156</v>
       </c>
       <c r="E24">
-        <v>2.098709365759191</v>
+        <v>0.6016123113792702</v>
       </c>
       <c r="F24">
-        <v>0.6809240739524824</v>
+        <v>0.7249515278863043</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.695106635219503</v>
+        <v>0.5181448638791153</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.860730223780848</v>
+        <v>2.42556483252423</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.302418062370322</v>
+        <v>0.43204684069525</v>
       </c>
       <c r="C25">
-        <v>0.2031219459877462</v>
+        <v>0.07585044468351043</v>
       </c>
       <c r="D25">
-        <v>0.0581396524540736</v>
+        <v>0.028803988992955</v>
       </c>
       <c r="E25">
-        <v>1.679716579645884</v>
+        <v>0.4944351383057182</v>
       </c>
       <c r="F25">
-        <v>0.5994047497525443</v>
+        <v>0.7153456369876636</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.391934608331468</v>
+        <v>0.4273898620324417</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.693200545200938</v>
+        <v>2.422517752853992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.369278686223538</v>
+        <v>1.090177988594803</v>
       </c>
       <c r="C2">
-        <v>0.06750128626842411</v>
+        <v>0.1773379547710761</v>
       </c>
       <c r="D2">
-        <v>0.02643641156463872</v>
+        <v>0.05168449439577927</v>
       </c>
       <c r="E2">
-        <v>0.4159123285804327</v>
+        <v>1.383532550445025</v>
       </c>
       <c r="F2">
-        <v>0.7099491187442979</v>
+        <v>0.5450687678099442</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3603870442761661</v>
+        <v>1.170672924044197</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.425853481378994</v>
+        <v>1.588286861067616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3267623426023363</v>
+        <v>0.947230737358808</v>
       </c>
       <c r="C3">
-        <v>0.06179291441249291</v>
+        <v>0.1599092110031108</v>
       </c>
       <c r="D3">
-        <v>0.02481443763277014</v>
+        <v>0.04728767669325151</v>
       </c>
       <c r="E3">
-        <v>0.3628992592812068</v>
+        <v>1.188390346628807</v>
       </c>
       <c r="F3">
-        <v>0.7073304550515758</v>
+        <v>0.5112503398841071</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3148674128965752</v>
+        <v>1.021451238526168</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.431571157312789</v>
+        <v>1.527004014964263</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3006692369605446</v>
+        <v>0.85975663646974</v>
       </c>
       <c r="C4">
-        <v>0.05826342446459876</v>
+        <v>0.1492139293715411</v>
       </c>
       <c r="D4">
-        <v>0.02381009723378469</v>
+        <v>0.04457584564107009</v>
       </c>
       <c r="E4">
-        <v>0.3304359795848484</v>
+        <v>1.070720680900706</v>
       </c>
       <c r="F4">
-        <v>0.7062327119439757</v>
+        <v>0.4918063936875043</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2868644905344411</v>
+        <v>0.9300430821373595</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.436779632266536</v>
+        <v>1.493716962852943</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2900395173022901</v>
+        <v>0.8241655912127896</v>
       </c>
       <c r="C5">
-        <v>0.05681901421743873</v>
+        <v>0.1448548836048786</v>
       </c>
       <c r="D5">
-        <v>0.02339872983109359</v>
+        <v>0.0434675449515467</v>
       </c>
       <c r="E5">
-        <v>0.3172271342781698</v>
+        <v>1.023228034671817</v>
       </c>
       <c r="F5">
-        <v>0.7059133797578028</v>
+        <v>0.4841926316125864</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2754399761403761</v>
+        <v>0.8928281151469832</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.439328064159156</v>
+        <v>1.481174528039588</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2882746793737567</v>
+        <v>0.8182585358702852</v>
       </c>
       <c r="C6">
-        <v>0.05657880328010378</v>
+        <v>0.1441309696680975</v>
       </c>
       <c r="D6">
-        <v>0.02333029727888913</v>
+        <v>0.0432833147743068</v>
       </c>
       <c r="E6">
-        <v>0.3150349875118934</v>
+        <v>1.0153673626901</v>
       </c>
       <c r="F6">
-        <v>0.7058680783579803</v>
+        <v>0.482946457806392</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2735421652580783</v>
+        <v>0.8866501483927891</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.439776925921819</v>
+        <v>1.479151670006644</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3005258664247776</v>
+        <v>0.8592764433124387</v>
       </c>
       <c r="C7">
-        <v>0.05824396932864317</v>
+        <v>0.1491551470301573</v>
       </c>
       <c r="D7">
-        <v>0.02380455781059965</v>
+        <v>0.04456091187967104</v>
       </c>
       <c r="E7">
-        <v>0.3302577608487383</v>
+        <v>1.070078424171243</v>
       </c>
       <c r="F7">
-        <v>0.7062278873820702</v>
+        <v>0.4917024859090589</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2867104680244665</v>
+        <v>0.9295410725701174</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.436812278036115</v>
+        <v>1.493543760202158</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3546167587350624</v>
+        <v>1.040816373194275</v>
       </c>
       <c r="C8">
-        <v>0.06553816001786572</v>
+        <v>0.1713259169108312</v>
       </c>
       <c r="D8">
-        <v>0.02587892582896956</v>
+        <v>0.05017090079995512</v>
       </c>
       <c r="E8">
-        <v>0.3976143566367938</v>
+        <v>1.315750339845749</v>
       </c>
       <c r="F8">
-        <v>0.7089401619904407</v>
+        <v>0.5331201906298872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3447032443233127</v>
+        <v>1.119164625695561</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.427471956429031</v>
+        <v>1.566212497626111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4607732036895413</v>
+        <v>1.40011357976033</v>
       </c>
       <c r="C9">
-        <v>0.0796457980496541</v>
+        <v>0.2149591222686382</v>
       </c>
       <c r="D9">
-        <v>0.02987854830368519</v>
+        <v>0.06108371841104798</v>
       </c>
       <c r="E9">
-        <v>0.5304715718473005</v>
+        <v>1.818636572995345</v>
       </c>
       <c r="F9">
-        <v>0.7183200586844052</v>
+        <v>0.6259043675830114</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4579889468427893</v>
+        <v>1.49368302974392</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.422674350482254</v>
+        <v>1.746529387937585</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.538810212772205</v>
+        <v>1.667560529698335</v>
       </c>
       <c r="C10">
-        <v>0.08988985053767351</v>
+        <v>0.2472816510896365</v>
       </c>
       <c r="D10">
-        <v>0.03277412581060446</v>
+        <v>0.06906119344565553</v>
       </c>
       <c r="E10">
-        <v>0.6286731617453114</v>
+        <v>2.207355954901487</v>
       </c>
       <c r="F10">
-        <v>0.7277079534868562</v>
+        <v>0.702764360068258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5409453036400578</v>
+        <v>1.771958412994081</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.42746075108019</v>
+        <v>1.907167000527267</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5743197598497147</v>
+        <v>1.790345013877868</v>
       </c>
       <c r="C11">
-        <v>0.09452372209453586</v>
+        <v>0.2620866110255236</v>
       </c>
       <c r="D11">
-        <v>0.03408180682819761</v>
+        <v>0.07268517221621806</v>
       </c>
       <c r="E11">
-        <v>0.6735028481930811</v>
+        <v>2.390014085200519</v>
       </c>
       <c r="F11">
-        <v>0.7325254296817718</v>
+        <v>0.7400218321189413</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5786236393819877</v>
+        <v>1.89960101297342</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.431458261238959</v>
+        <v>1.987622585369735</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5877674948827689</v>
+        <v>1.837034686546303</v>
       </c>
       <c r="C12">
-        <v>0.09627464524143647</v>
+        <v>0.2677114307982293</v>
       </c>
       <c r="D12">
-        <v>0.0345755930863163</v>
+        <v>0.07405707460424082</v>
       </c>
       <c r="E12">
-        <v>0.6905033027698693</v>
+        <v>2.460177519939691</v>
       </c>
       <c r="F12">
-        <v>0.7344286564715787</v>
+        <v>0.7544975123607998</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5928827030609227</v>
+        <v>1.948121512383068</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.4332349316457</v>
+        <v>2.01926780996115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5848712448268714</v>
+        <v>1.826970054094346</v>
       </c>
       <c r="C13">
-        <v>0.09589772354335935</v>
+        <v>0.2664991346445902</v>
       </c>
       <c r="D13">
-        <v>0.03446931036020828</v>
+        <v>0.07376162436894163</v>
       </c>
       <c r="E13">
-        <v>0.686840835426068</v>
+        <v>2.445019607939599</v>
       </c>
       <c r="F13">
-        <v>0.7340152460770497</v>
+        <v>0.7513629557299311</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5898121613913645</v>
+        <v>1.937662955038888</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.432840582747644</v>
+        <v>2.012398039735331</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5754260946169438</v>
+        <v>1.794182117812454</v>
       </c>
       <c r="C14">
-        <v>0.09466784854060961</v>
+        <v>0.2625489733112829</v>
       </c>
       <c r="D14">
-        <v>0.03412245925307644</v>
+        <v>0.07279804601157025</v>
       </c>
       <c r="E14">
-        <v>0.674900985891199</v>
+        <v>2.395765565060046</v>
       </c>
       <c r="F14">
-        <v>0.7326804251625418</v>
+        <v>0.7412051712878167</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5797969220361665</v>
+        <v>1.903588911308844</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.43159915339146</v>
+        <v>1.990201725859833</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5696407906200704</v>
+        <v>1.774124828747517</v>
       </c>
       <c r="C15">
-        <v>0.09391401501756036</v>
+        <v>0.2601319197408287</v>
       </c>
       <c r="D15">
-        <v>0.03390981908308532</v>
+        <v>0.07220778132958827</v>
       </c>
       <c r="E15">
-        <v>0.6675907181106737</v>
+        <v>2.365730592205836</v>
       </c>
       <c r="F15">
-        <v>0.7318731001349335</v>
+        <v>0.7350322100736122</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5736611264520377</v>
+        <v>1.882742723875424</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.430873014034944</v>
+        <v>1.976762989560314</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5364897484143398</v>
+        <v>1.659561554011191</v>
       </c>
       <c r="C16">
-        <v>0.08958648412675529</v>
+        <v>0.2463164766388815</v>
       </c>
       <c r="D16">
-        <v>0.03268847110424389</v>
+        <v>0.06882428197526025</v>
       </c>
       <c r="E16">
-        <v>0.6257467554810319</v>
+        <v>2.195549026699496</v>
       </c>
       <c r="F16">
-        <v>0.7274041513734488</v>
+        <v>0.7003787516725453</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5384817130796762</v>
+        <v>1.763640657592106</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.427236229956179</v>
+        <v>1.902067301679693</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5161549529773879</v>
+        <v>1.589590117687408</v>
       </c>
       <c r="C17">
-        <v>0.08692493365489895</v>
+        <v>0.2378697531959801</v>
       </c>
       <c r="D17">
-        <v>0.03193674841013205</v>
+        <v>0.06674753393912169</v>
       </c>
       <c r="E17">
-        <v>0.6001184060109779</v>
+        <v>2.092746072251515</v>
       </c>
       <c r="F17">
-        <v>0.7248028866342224</v>
+        <v>0.6797327904521211</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5168848815781359</v>
+        <v>1.690868047767765</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.425472192730808</v>
+        <v>1.858213982832041</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5044598935531042</v>
+        <v>1.549447827296376</v>
       </c>
       <c r="C18">
-        <v>0.08539161750429969</v>
+        <v>0.2330206931132892</v>
       </c>
       <c r="D18">
-        <v>0.03150348220748356</v>
+        <v>0.0655525513300006</v>
       </c>
       <c r="E18">
-        <v>0.5853923531770278</v>
+        <v>2.034154566969889</v>
       </c>
       <c r="F18">
-        <v>0.7233581637360658</v>
+        <v>0.6680712153949315</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5044574342174997</v>
+        <v>1.649108150543839</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.424628816657702</v>
+        <v>1.833677753979117</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.500500327919724</v>
+        <v>1.535873161203028</v>
       </c>
       <c r="C19">
-        <v>0.08487204175173702</v>
+        <v>0.2313803643479702</v>
       </c>
       <c r="D19">
-        <v>0.0313566329935</v>
+        <v>0.06514785761768849</v>
       </c>
       <c r="E19">
-        <v>0.5804088339549196</v>
+        <v>2.014404445572069</v>
       </c>
       <c r="F19">
-        <v>0.7228778334412738</v>
+        <v>0.6641583868587162</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.500248779034365</v>
+        <v>1.634984658675535</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.424372641221453</v>
+        <v>1.825484829001994</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5183195285641773</v>
+        <v>1.597027766341057</v>
       </c>
       <c r="C20">
-        <v>0.0872085155361475</v>
+        <v>0.2387679346223877</v>
       </c>
       <c r="D20">
-        <v>0.03201686346714894</v>
+        <v>0.06696865616738279</v>
       </c>
       <c r="E20">
-        <v>0.6028450535715706</v>
+        <v>2.103632866304181</v>
       </c>
       <c r="F20">
-        <v>0.7250744679570147</v>
+        <v>0.6819082399824481</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5191844757123079</v>
+        <v>1.698604547236215</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.425642245181734</v>
+        <v>1.86281032646329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5782003392407375</v>
+        <v>1.803807192246751</v>
       </c>
       <c r="C21">
-        <v>0.09502919684966571</v>
+        <v>0.2637086956129764</v>
       </c>
       <c r="D21">
-        <v>0.03422437620519503</v>
+        <v>0.07308108114660428</v>
       </c>
       <c r="E21">
-        <v>0.6784073317457597</v>
+        <v>2.410204321721835</v>
       </c>
       <c r="F21">
-        <v>0.7330703491592914</v>
+        <v>0.7441784805873795</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5827388856736775</v>
+        <v>1.913591978266396</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.431956646954234</v>
+        <v>1.99668834591975</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6173417845366771</v>
+        <v>1.940097007773602</v>
       </c>
       <c r="C22">
-        <v>0.1001181529368154</v>
+        <v>0.2801189436475227</v>
       </c>
       <c r="D22">
-        <v>0.03565891356843309</v>
+        <v>0.07707362347730395</v>
       </c>
       <c r="E22">
-        <v>0.727934868665173</v>
+        <v>2.616453039377703</v>
       </c>
       <c r="F22">
-        <v>0.7387564645732709</v>
+        <v>0.7870354071285135</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6242232693227834</v>
+        <v>2.055195263024075</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.437616399496534</v>
+        <v>2.091117503192464</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5964508569768725</v>
+        <v>1.867239921487169</v>
       </c>
       <c r="C23">
-        <v>0.09740414103167438</v>
+        <v>0.2713489941927776</v>
       </c>
       <c r="D23">
-        <v>0.03489403523912671</v>
+        <v>0.07494282826943532</v>
       </c>
       <c r="E23">
-        <v>0.7014873838633662</v>
+        <v>2.505778239244719</v>
       </c>
       <c r="F23">
-        <v>0.7356794526076555</v>
+        <v>0.7639509282682297</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.602087180787521</v>
+        <v>1.979506585772299</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.434455034506044</v>
+        <v>2.040042695033691</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5173409373524009</v>
+        <v>1.593664942363347</v>
       </c>
       <c r="C24">
-        <v>0.08708031799307037</v>
+        <v>0.2383618450579377</v>
       </c>
       <c r="D24">
-        <v>0.031980646845156</v>
+        <v>0.06686869004646212</v>
       </c>
       <c r="E24">
-        <v>0.6016123113792702</v>
+        <v>2.098709365759163</v>
       </c>
       <c r="F24">
-        <v>0.7249515278863043</v>
+        <v>0.6809240739524824</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5181448638791153</v>
+        <v>1.695106635219389</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.42556483252423</v>
+        <v>1.860730223780848</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.43204684069525</v>
+        <v>1.302418062370265</v>
       </c>
       <c r="C25">
-        <v>0.07585044468351043</v>
+        <v>0.2031219459879878</v>
       </c>
       <c r="D25">
-        <v>0.028803988992955</v>
+        <v>0.05813965245415886</v>
       </c>
       <c r="E25">
-        <v>0.4944351383057182</v>
+        <v>1.679716579645884</v>
       </c>
       <c r="F25">
-        <v>0.7153456369876636</v>
+        <v>0.5994047497525088</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4273898620324417</v>
+        <v>1.391934608331525</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.422517752853992</v>
+        <v>1.693200545200881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.090177988594803</v>
+        <v>0.6537113084725377</v>
       </c>
       <c r="C2">
-        <v>0.1773379547710761</v>
+        <v>0.2744139364461375</v>
       </c>
       <c r="D2">
-        <v>0.05168449439577927</v>
+        <v>0.09570604566561158</v>
       </c>
       <c r="E2">
-        <v>1.383532550445025</v>
+        <v>0.3201777569594029</v>
       </c>
       <c r="F2">
-        <v>0.5450687678099442</v>
+        <v>2.582182266995375</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001724805233246141</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008404181110991615</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>1.170672924044197</v>
+        <v>1.756052633134104</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9265972718229989</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.588286861067616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5924861045483567</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.947230737358808</v>
+        <v>0.5675797146816706</v>
       </c>
       <c r="C3">
-        <v>0.1599092110031108</v>
+        <v>0.2372158278073613</v>
       </c>
       <c r="D3">
-        <v>0.04728767669325151</v>
+        <v>0.09148725652726952</v>
       </c>
       <c r="E3">
-        <v>1.188390346628807</v>
+        <v>0.2769113853716973</v>
       </c>
       <c r="F3">
-        <v>0.5112503398841071</v>
+        <v>2.341306276074107</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003415290111488112</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01222191240424486</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>1.021451238526168</v>
+        <v>1.609680536150876</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8033724466366436</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.527004014964263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5146931542178663</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.85975663646974</v>
+        <v>0.5147689093714121</v>
       </c>
       <c r="C4">
-        <v>0.1492139293715411</v>
+        <v>0.2148297005481652</v>
       </c>
       <c r="D4">
-        <v>0.04457584564107009</v>
+        <v>0.08876734288337218</v>
       </c>
       <c r="E4">
-        <v>1.070720680900706</v>
+        <v>0.250533715700108</v>
       </c>
       <c r="F4">
-        <v>0.4918063936875043</v>
+        <v>2.192952007725054</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00478359309726617</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01505574118887854</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.9300430821373595</v>
+        <v>1.518988780318068</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7282237324156426</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.493716962852943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4670914241736668</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8241655912127896</v>
+        <v>0.4930628009286693</v>
       </c>
       <c r="C5">
-        <v>0.1448548836048786</v>
+        <v>0.2061894990116855</v>
       </c>
       <c r="D5">
-        <v>0.0434675449515467</v>
+        <v>0.08743290090856348</v>
       </c>
       <c r="E5">
-        <v>1.023228034671817</v>
+        <v>0.2397884464568136</v>
       </c>
       <c r="F5">
-        <v>0.4841926316125864</v>
+        <v>2.128054784889969</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00542358375764096</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01642456923089863</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.8928281151469832</v>
+        <v>1.478288142526822</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6979219749474481</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.481174528039588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4477697080699556</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8182585358702852</v>
+        <v>0.4892195931860215</v>
       </c>
       <c r="C6">
-        <v>0.1441309696680975</v>
+        <v>0.2052256521219533</v>
       </c>
       <c r="D6">
-        <v>0.0432833147743068</v>
+        <v>0.0869738712686221</v>
       </c>
       <c r="E6">
-        <v>1.0153673626901</v>
+        <v>0.2379622747386065</v>
       </c>
       <c r="F6">
-        <v>0.482946457806392</v>
+        <v>2.112012471595321</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005538937258835808</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01678462265437286</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.8866501483927891</v>
+        <v>1.46721000172974</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6931561775086692</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.479151670006644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4446174470900601</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8592764433124387</v>
+        <v>0.5138177665515684</v>
       </c>
       <c r="C7">
-        <v>0.1491551470301573</v>
+        <v>0.2159844665911095</v>
       </c>
       <c r="D7">
-        <v>0.04456091187967104</v>
+        <v>0.08810425450963066</v>
       </c>
       <c r="E7">
-        <v>1.070078424171243</v>
+        <v>0.2502661164358528</v>
       </c>
       <c r="F7">
-        <v>0.4917024859090589</v>
+        <v>2.177684979193671</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004803000842761307</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01539739629301895</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.9295410725701174</v>
+        <v>1.506648278280736</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7285220097855074</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.493543760202158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4669790972137378</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.040816373194275</v>
+        <v>0.6230999858407245</v>
       </c>
       <c r="C8">
-        <v>0.1713259169108312</v>
+        <v>0.2631807754509623</v>
       </c>
       <c r="D8">
-        <v>0.05017090079995512</v>
+        <v>0.09342109526457776</v>
       </c>
       <c r="E8">
-        <v>1.315750339845749</v>
+        <v>0.3050445755212934</v>
       </c>
       <c r="F8">
-        <v>0.5331201906298872</v>
+        <v>2.480043659656616</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00224626273485784</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009992483678018971</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.119164625695561</v>
+        <v>1.690043170996702</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8849184206213465</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.566212497626111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5658182192489889</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.40011357976033</v>
+        <v>0.8396274306431906</v>
       </c>
       <c r="C9">
-        <v>0.2149591222686382</v>
+        <v>0.3575686607614728</v>
       </c>
       <c r="D9">
-        <v>0.06108371841104798</v>
+        <v>0.1039791964435324</v>
       </c>
       <c r="E9">
-        <v>1.818636572995345</v>
+        <v>0.4145493674519898</v>
       </c>
       <c r="F9">
-        <v>0.6259043675830114</v>
+        <v>3.096588649449529</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.766858240712324E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003102491649259242</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.49368302974392</v>
+        <v>2.065047027407417</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.195339297375938</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.746529387937585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7611226828233768</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667560529698335</v>
+        <v>1.00669422728788</v>
       </c>
       <c r="C10">
-        <v>0.2472816510896365</v>
+        <v>0.4275336099876199</v>
       </c>
       <c r="D10">
-        <v>0.06906119344565553</v>
+        <v>0.1075515061266294</v>
       </c>
       <c r="E10">
-        <v>2.207355954901487</v>
+        <v>0.4639101513798991</v>
       </c>
       <c r="F10">
-        <v>0.702764360068258</v>
+        <v>3.467535579657493</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005530149707348997</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001199018622472181</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.771958412994081</v>
+        <v>2.276120127863237</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.431484106735724</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.907167000527267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8757539272709849</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.790345013877868</v>
+        <v>1.146336658660715</v>
       </c>
       <c r="C11">
-        <v>0.2620866110255236</v>
+        <v>0.4333021689772636</v>
       </c>
       <c r="D11">
-        <v>0.07268517221621806</v>
+        <v>0.08570791633404795</v>
       </c>
       <c r="E11">
-        <v>2.390014085200519</v>
+        <v>0.2463805107530987</v>
       </c>
       <c r="F11">
-        <v>0.7400218321189413</v>
+        <v>2.986906057222399</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01894410872031216</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001562490378811177</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.89960101297342</v>
+        <v>1.894432917301714</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.571384071962484</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.987622585369735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6795392020737978</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.837034686546303</v>
+        <v>1.234183291934499</v>
       </c>
       <c r="C12">
-        <v>0.2677114307982293</v>
+        <v>0.4211741973500693</v>
       </c>
       <c r="D12">
-        <v>0.07405707460424082</v>
+        <v>0.07460892008464803</v>
       </c>
       <c r="E12">
-        <v>2.460177519939691</v>
+        <v>0.1115604488868094</v>
       </c>
       <c r="F12">
-        <v>0.7544975123607998</v>
+        <v>2.558137927730741</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05747459394270038</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001565896662096833</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.948121512383068</v>
+        <v>1.577899183323652</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.640111241866435</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.01926780996115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5128754417190251</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.826970054094346</v>
+        <v>1.285202232302737</v>
       </c>
       <c r="C13">
-        <v>0.2664991346445902</v>
+        <v>0.3966568598101787</v>
       </c>
       <c r="D13">
-        <v>0.07376162436894163</v>
+        <v>0.0699587064566618</v>
       </c>
       <c r="E13">
-        <v>2.445019607939599</v>
+        <v>0.03226347942596419</v>
       </c>
       <c r="F13">
-        <v>0.7513629557299311</v>
+        <v>2.123228361186804</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131463415278944</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001675339933905562</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.937662955038888</v>
+        <v>1.275505240085337</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.658405763405199</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.012398039735331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3606739876288003</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.794182117812454</v>
+        <v>1.304091021971061</v>
       </c>
       <c r="C14">
-        <v>0.2625489733112829</v>
+        <v>0.3744953905126636</v>
       </c>
       <c r="D14">
-        <v>0.07279804601157025</v>
+        <v>0.070447331001386</v>
       </c>
       <c r="E14">
-        <v>2.395765565060046</v>
+        <v>0.009839119503105787</v>
       </c>
       <c r="F14">
-        <v>0.7412051712878167</v>
+        <v>1.819462623332043</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625119347427386</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001947335725800414</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.903588911308844</v>
+        <v>1.073377962176856</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.648737289449542</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.990201725859833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2648665624116688</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.774124828747517</v>
+        <v>1.299837108145908</v>
       </c>
       <c r="C15">
-        <v>0.2601319197408287</v>
+        <v>0.3669955513424839</v>
       </c>
       <c r="D15">
-        <v>0.07220778132958827</v>
+        <v>0.07106036738443322</v>
       </c>
       <c r="E15">
-        <v>2.365730592205836</v>
+        <v>0.008626668898059187</v>
       </c>
       <c r="F15">
-        <v>0.7350322100736122</v>
+        <v>1.736787682746225</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750437260645015</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002196555409255119</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.882742723875424</v>
+        <v>1.020683731311536</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.635656867302799</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.976762989560314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2419180702657719</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.659561554011191</v>
+        <v>1.214799183097824</v>
       </c>
       <c r="C16">
-        <v>0.2463164766388815</v>
+        <v>0.3430436657266966</v>
       </c>
       <c r="D16">
-        <v>0.06882428197526025</v>
+        <v>0.07042719651091289</v>
       </c>
       <c r="E16">
-        <v>2.195549026699496</v>
+        <v>0.007465638409996034</v>
       </c>
       <c r="F16">
-        <v>0.7003787516725453</v>
+        <v>1.669785125527071</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1624631124126097</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003069616738940795</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.763640657592106</v>
+        <v>0.9940211806465271</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.52932054778168</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.902067301679693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2296026194097465</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.589590117687408</v>
+        <v>1.13974982418614</v>
       </c>
       <c r="C17">
-        <v>0.2378697531959801</v>
+        <v>0.3364800333482663</v>
       </c>
       <c r="D17">
-        <v>0.06674753393912169</v>
+        <v>0.06901603300097747</v>
       </c>
       <c r="E17">
-        <v>2.092746072251515</v>
+        <v>0.01264980740122645</v>
       </c>
       <c r="F17">
-        <v>0.6797327904521211</v>
+        <v>1.774360901202215</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1247764858820943</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003665169915882061</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.690868047767765</v>
+        <v>1.076211708534252</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.453212518828394</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.858213982832041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2679367119389724</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.549447827296376</v>
+        <v>1.066798805294468</v>
       </c>
       <c r="C18">
-        <v>0.2330206931132892</v>
+        <v>0.343023740757161</v>
       </c>
       <c r="D18">
-        <v>0.0655525513300006</v>
+        <v>0.07016317233242431</v>
       </c>
       <c r="E18">
-        <v>2.034154566969889</v>
+        <v>0.05220699740015178</v>
       </c>
       <c r="F18">
-        <v>0.6680712153949315</v>
+        <v>2.064513940950803</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07185944304222147</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003561081486685325</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.649108150543839</v>
+        <v>1.284411840815068</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.394090687714794</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.833677753979117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3659296943062671</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.535873161203028</v>
+        <v>1.001406489041585</v>
       </c>
       <c r="C19">
-        <v>0.2313803643479702</v>
+        <v>0.362263066765621</v>
       </c>
       <c r="D19">
-        <v>0.06514785761768849</v>
+        <v>0.07815402781453074</v>
       </c>
       <c r="E19">
-        <v>2.014404445572069</v>
+        <v>0.159563439216484</v>
       </c>
       <c r="F19">
-        <v>0.6641583868587162</v>
+        <v>2.490081651916995</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02637036642013157</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003399332430285895</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.634984658675535</v>
+        <v>1.588563424730822</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.355157036818042</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.825484829001994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5238604319420546</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.597027766341057</v>
+        <v>0.9607640633468577</v>
       </c>
       <c r="C20">
-        <v>0.2387679346223877</v>
+        <v>0.4128350526193003</v>
       </c>
       <c r="D20">
-        <v>0.06696865616738279</v>
+        <v>0.1045643079625229</v>
       </c>
       <c r="E20">
-        <v>2.103632866304181</v>
+        <v>0.4490276385497154</v>
       </c>
       <c r="F20">
-        <v>0.6819082399824481</v>
+        <v>3.321655939737923</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002630799196254863</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002326927209116647</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.698604547236215</v>
+        <v>2.181544627216184</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.371391076817986</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.86281032646329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.844734609578353</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803807192246751</v>
+        <v>1.079058974979688</v>
       </c>
       <c r="C21">
-        <v>0.2637086956129764</v>
+        <v>0.4721073570719341</v>
       </c>
       <c r="D21">
-        <v>0.07308108114660428</v>
+        <v>0.1124794609916329</v>
       </c>
       <c r="E21">
-        <v>2.410204321721835</v>
+        <v>0.5381686982655935</v>
       </c>
       <c r="F21">
-        <v>0.7441784805873795</v>
+        <v>3.732668369662917</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001232399570239462</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001668650911555325</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.913591978266396</v>
+        <v>2.436705625729388</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.548767740591188</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.99668834591975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9807019086431552</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.940097007773602</v>
+        <v>1.161369946246907</v>
       </c>
       <c r="C22">
-        <v>0.2801189436475227</v>
+        <v>0.5083325138637065</v>
       </c>
       <c r="D22">
-        <v>0.07707362347730395</v>
+        <v>0.1167662478356561</v>
       </c>
       <c r="E22">
-        <v>2.616453039377703</v>
+        <v>0.5804999847773828</v>
       </c>
       <c r="F22">
-        <v>0.7870354071285135</v>
+        <v>3.983107689666099</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002391879151988352</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00164768447975483</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>2.055195263024075</v>
+        <v>2.590773619812992</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.666822655814201</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.091117503192464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.054354892760401</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.867239921487169</v>
+        <v>1.118253369840005</v>
       </c>
       <c r="C23">
-        <v>0.2713489941927776</v>
+        <v>0.4873703029708736</v>
       </c>
       <c r="D23">
-        <v>0.07494282826943532</v>
+        <v>0.1152521018588288</v>
       </c>
       <c r="E23">
-        <v>2.505778239244719</v>
+        <v>0.5580422483379976</v>
       </c>
       <c r="F23">
-        <v>0.7639509282682297</v>
+        <v>3.866712444586454</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001734375903590379</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001289479293860474</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.979506585772299</v>
+        <v>2.522755962219378</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.602901123378501</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.040042695033691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.014826131542179</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.593664942363347</v>
+        <v>0.954543070500165</v>
       </c>
       <c r="C24">
-        <v>0.2383618450579377</v>
+        <v>0.4121434547830347</v>
       </c>
       <c r="D24">
-        <v>0.06686869004646212</v>
+        <v>0.10810157936114</v>
       </c>
       <c r="E24">
-        <v>2.098709365759163</v>
+        <v>0.4736829275399401</v>
       </c>
       <c r="F24">
-        <v>0.6809240739524824</v>
+        <v>3.400615327054339</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001842466802188802</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00178847760891987</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.695106635219389</v>
+        <v>2.242830004948502</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.364624813814032</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.860730223780848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8664803950238067</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.302418062370265</v>
+        <v>0.7796215040745267</v>
       </c>
       <c r="C25">
-        <v>0.2031219459879878</v>
+        <v>0.3338510248725868</v>
       </c>
       <c r="D25">
-        <v>0.05813965245415886</v>
+        <v>0.1000653263651188</v>
       </c>
       <c r="E25">
-        <v>1.679716579645884</v>
+        <v>0.3844229915457689</v>
       </c>
       <c r="F25">
-        <v>0.5994047497525088</v>
+        <v>2.903518063671839</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0003142757408665098</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004969149246655036</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.391934608331525</v>
+        <v>1.942574394624614</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.111939404512469</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.693200545200881</v>
+        <v>0.7082960254381163</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6537113084725377</v>
+        <v>0.6301422792477354</v>
       </c>
       <c r="C2">
-        <v>0.2744139364461375</v>
+        <v>0.3511354924622196</v>
       </c>
       <c r="D2">
-        <v>0.09570604566561158</v>
+        <v>0.06375742697917852</v>
       </c>
       <c r="E2">
-        <v>0.3201777569594029</v>
+        <v>0.3185178975474869</v>
       </c>
       <c r="F2">
-        <v>2.582182266995375</v>
+        <v>1.793426163891553</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001724805233246141</v>
+        <v>0.001230058948937796</v>
       </c>
       <c r="I2">
-        <v>0.008404181110991615</v>
+        <v>0.005513895619316145</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.756052633134104</v>
+        <v>1.110194247932981</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4582318513445145</v>
       </c>
       <c r="M2">
-        <v>0.9265972718229989</v>
+        <v>0.3760993862487538</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5924861045483567</v>
+        <v>0.9777274322468656</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6043519194541602</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5675797146816706</v>
+        <v>0.5493559210634373</v>
       </c>
       <c r="C3">
-        <v>0.2372158278073613</v>
+        <v>0.3026120217540722</v>
       </c>
       <c r="D3">
-        <v>0.09148725652726952</v>
+        <v>0.06264960752411719</v>
       </c>
       <c r="E3">
-        <v>0.2769113853716973</v>
+        <v>0.2761787225311423</v>
       </c>
       <c r="F3">
-        <v>2.341306276074107</v>
+        <v>1.658587073483332</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003415290111488112</v>
+        <v>0.002597305125668026</v>
       </c>
       <c r="I3">
-        <v>0.01222191240424486</v>
+        <v>0.008112225861701905</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.609680536150876</v>
+        <v>1.046835437166742</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4444437327709707</v>
       </c>
       <c r="M3">
-        <v>0.8033724466366436</v>
+        <v>0.3436879652604006</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5146931542178663</v>
+        <v>0.8477560650567</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5250746119969421</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5147689093714121</v>
+        <v>0.499673752303039</v>
       </c>
       <c r="C4">
-        <v>0.2148297005481652</v>
+        <v>0.2733855905846667</v>
       </c>
       <c r="D4">
-        <v>0.08876734288337218</v>
+        <v>0.06189541539110355</v>
       </c>
       <c r="E4">
-        <v>0.250533715700108</v>
+        <v>0.2503000600009671</v>
       </c>
       <c r="F4">
-        <v>2.192952007725054</v>
+        <v>1.575217012343586</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.00478359309726617</v>
+        <v>0.003727328842694222</v>
       </c>
       <c r="I4">
-        <v>0.01505574118887854</v>
+        <v>0.01007994242184918</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.518988780318068</v>
+        <v>1.007140270479709</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4352872758726178</v>
       </c>
       <c r="M4">
-        <v>0.7282237324156426</v>
+        <v>0.3244344647658011</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4670914241736668</v>
+        <v>0.768346479575257</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4765323591072317</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4930628009286693</v>
+        <v>0.4792408840118725</v>
       </c>
       <c r="C5">
-        <v>0.2061894990116855</v>
+        <v>0.2619593222945014</v>
       </c>
       <c r="D5">
-        <v>0.08743290090856348</v>
+        <v>0.06150758194807615</v>
       </c>
       <c r="E5">
-        <v>0.2397884464568136</v>
+        <v>0.2397472606039059</v>
       </c>
       <c r="F5">
-        <v>2.128054784889969</v>
+        <v>1.538184227916815</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.00542358375764096</v>
+        <v>0.004259870663993137</v>
       </c>
       <c r="I5">
-        <v>0.01642456923089863</v>
+        <v>0.01107489131526407</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.478288142526822</v>
+        <v>0.9885475845838485</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4304684247921173</v>
       </c>
       <c r="M5">
-        <v>0.6979219749474481</v>
+        <v>0.316004653739931</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4477697080699556</v>
+        <v>0.7362463503922925</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4568131443124273</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4892195931860215</v>
+        <v>0.4756484026313075</v>
       </c>
       <c r="C6">
-        <v>0.2052256521219533</v>
+        <v>0.2605024441304238</v>
       </c>
       <c r="D6">
-        <v>0.0869738712686221</v>
+        <v>0.06136731382984983</v>
       </c>
       <c r="E6">
-        <v>0.2379622747386065</v>
+        <v>0.2379586201212973</v>
       </c>
       <c r="F6">
-        <v>2.112012471595321</v>
+        <v>1.528484054797914</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.005538937258835808</v>
+        <v>0.004355658189050371</v>
       </c>
       <c r="I6">
-        <v>0.01678462265437286</v>
+        <v>0.01138117070523403</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.46721000172974</v>
+        <v>0.9827465268609927</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4285439527036345</v>
       </c>
       <c r="M6">
-        <v>0.6931561775086692</v>
+        <v>0.3137061994844998</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4446174470900601</v>
+        <v>0.7311368969552632</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4535847344746671</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5138177665515684</v>
+        <v>0.4988549002812874</v>
       </c>
       <c r="C7">
-        <v>0.2159844665911095</v>
+        <v>0.2744169238735878</v>
       </c>
       <c r="D7">
-        <v>0.08810425450963066</v>
+        <v>0.06168985285853035</v>
       </c>
       <c r="E7">
-        <v>0.2502661164358528</v>
+        <v>0.2500536866622411</v>
       </c>
       <c r="F7">
-        <v>2.177684979193671</v>
+        <v>1.565056915540765</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.004803000842761307</v>
+        <v>0.003742321402801618</v>
       </c>
       <c r="I7">
-        <v>0.01539739629301895</v>
+        <v>0.0104422876268826</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.506648278280736</v>
+        <v>0.999526235181591</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4322233338732033</v>
       </c>
       <c r="M7">
-        <v>0.7285220097855074</v>
+        <v>0.3218069378094626</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4669790972137378</v>
+        <v>0.7685027578496317</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4763880015827127</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6230999858407245</v>
+        <v>0.601569095037263</v>
       </c>
       <c r="C8">
-        <v>0.2631807754509623</v>
+        <v>0.3358658775862864</v>
       </c>
       <c r="D8">
-        <v>0.09342109526457776</v>
+        <v>0.06314494659650283</v>
       </c>
       <c r="E8">
-        <v>0.3050445755212934</v>
+        <v>0.3037482132068945</v>
       </c>
       <c r="F8">
-        <v>2.480043659656616</v>
+        <v>1.734316921818021</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00224626273485784</v>
+        <v>0.001645752473341755</v>
       </c>
       <c r="I8">
-        <v>0.009992483678018971</v>
+        <v>0.006742623368081624</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.690043170996702</v>
+        <v>1.078844245976555</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4498336753638341</v>
       </c>
       <c r="M8">
-        <v>0.8849184206213465</v>
+        <v>0.3613350772544166</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5658182192489889</v>
+        <v>0.9335979321163563</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5771440550394473</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8396274306431906</v>
+        <v>0.803627758131114</v>
       </c>
       <c r="C9">
-        <v>0.3575686607614728</v>
+        <v>0.4592966855018403</v>
       </c>
       <c r="D9">
-        <v>0.1039791964435324</v>
+        <v>0.06573313979654127</v>
       </c>
       <c r="E9">
-        <v>0.4145493674519898</v>
+        <v>0.4104574745886751</v>
       </c>
       <c r="F9">
-        <v>3.096588649449529</v>
+        <v>2.079595621255564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.766858240712324E-05</v>
+        <v>6.727143081253217E-06</v>
       </c>
       <c r="I9">
-        <v>0.003102491649259242</v>
+        <v>0.00213476710767857</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>2.065047027407417</v>
+        <v>1.241372632673546</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4839671595861574</v>
       </c>
       <c r="M9">
-        <v>1.195339297375938</v>
+        <v>0.4488941138099776</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7611226828233768</v>
+        <v>1.260179354293086</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7759699364183845</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.00669422728788</v>
+        <v>0.9596854286978385</v>
       </c>
       <c r="C10">
-        <v>0.4275336099876199</v>
+        <v>0.5489630783804103</v>
       </c>
       <c r="D10">
-        <v>0.1075515061266294</v>
+        <v>0.06656646389293419</v>
       </c>
       <c r="E10">
-        <v>0.4639101513798991</v>
+        <v>0.4577102529003056</v>
       </c>
       <c r="F10">
-        <v>3.467535579657493</v>
+        <v>2.281651640706201</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0005530149707348997</v>
+        <v>0.0006586036581444077</v>
       </c>
       <c r="I10">
-        <v>0.001199018622472181</v>
+        <v>0.001164556836323882</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.276120127863237</v>
+        <v>1.323846370733847</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4937784217588117</v>
       </c>
       <c r="M10">
-        <v>1.431484106735724</v>
+        <v>0.5035350368542169</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8757539272709849</v>
+        <v>1.506529480842772</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8924433665785614</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.146336658660715</v>
+        <v>1.099967568981924</v>
       </c>
       <c r="C11">
-        <v>0.4333021689772636</v>
+        <v>0.5443251112818928</v>
       </c>
       <c r="D11">
-        <v>0.08570791633404795</v>
+        <v>0.06490516498329058</v>
       </c>
       <c r="E11">
-        <v>0.2463805107530987</v>
+        <v>0.2426213361236975</v>
       </c>
       <c r="F11">
-        <v>2.986906057222399</v>
+        <v>1.977592673147385</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01894410872031216</v>
+        <v>0.01902430161013058</v>
       </c>
       <c r="I11">
-        <v>0.001562490378811177</v>
+        <v>0.001742281639572241</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.894432917301714</v>
+        <v>1.103521711245229</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4074358095622443</v>
       </c>
       <c r="M11">
-        <v>1.571384071962484</v>
+        <v>0.426287666457192</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6795392020737978</v>
+        <v>1.644260313122516</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6930300117575072</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.234183291934499</v>
+        <v>1.190966329398805</v>
       </c>
       <c r="C12">
-        <v>0.4211741973500693</v>
+        <v>0.5195860382088995</v>
       </c>
       <c r="D12">
-        <v>0.07460892008464803</v>
+        <v>0.0679679787229297</v>
       </c>
       <c r="E12">
-        <v>0.1115604488868094</v>
+        <v>0.1098749491691322</v>
       </c>
       <c r="F12">
-        <v>2.558137927730741</v>
+        <v>1.71132157891968</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05747459394270038</v>
+        <v>0.05752708996092082</v>
       </c>
       <c r="I12">
-        <v>0.001565896662096833</v>
+        <v>0.001739434213080315</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.577899183323652</v>
+        <v>0.9284512621984007</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3437651601034517</v>
       </c>
       <c r="M12">
-        <v>1.640111241866435</v>
+        <v>0.3593467391384308</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5128754417190251</v>
+        <v>1.708748019794683</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.523550481342852</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.285202232302737</v>
+        <v>1.247434369420972</v>
       </c>
       <c r="C13">
-        <v>0.3966568598101787</v>
+        <v>0.4800059017065053</v>
       </c>
       <c r="D13">
-        <v>0.0699587064566618</v>
+        <v>0.07422660622791</v>
       </c>
       <c r="E13">
-        <v>0.03226347942596419</v>
+        <v>0.03240587985120591</v>
       </c>
       <c r="F13">
-        <v>2.123228361186804</v>
+        <v>1.443600630065987</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131463415278944</v>
+        <v>0.1131531146255753</v>
       </c>
       <c r="I13">
-        <v>0.001675339933905562</v>
+        <v>0.001725829756823671</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.275505240085337</v>
+        <v>0.7662700312879309</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.288305717348031</v>
       </c>
       <c r="M13">
-        <v>1.658405763405199</v>
+        <v>0.2930237787236152</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3606739876288003</v>
+        <v>1.720799892403221</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3686014345736126</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.304091021971061</v>
+        <v>1.27120171462164</v>
       </c>
       <c r="C14">
-        <v>0.3744953905126636</v>
+        <v>0.4463201484049364</v>
       </c>
       <c r="D14">
-        <v>0.070447331001386</v>
+        <v>0.08049620414822556</v>
       </c>
       <c r="E14">
-        <v>0.009839119503105787</v>
+        <v>0.0110409937427467</v>
       </c>
       <c r="F14">
-        <v>1.819462623332043</v>
+        <v>1.256728551273113</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1625119347427386</v>
+        <v>0.162471684805098</v>
       </c>
       <c r="I14">
-        <v>0.001947335725800414</v>
+        <v>0.001852117123607222</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.073377962176856</v>
+        <v>0.6595950073645156</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.253031180924232</v>
       </c>
       <c r="M14">
-        <v>1.648737289449542</v>
+        <v>0.2478364331027123</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2648665624116688</v>
+        <v>1.705757323727539</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2709363907814293</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.299837108145908</v>
+        <v>1.268602740860842</v>
       </c>
       <c r="C15">
-        <v>0.3669955513424839</v>
+        <v>0.4354477203133058</v>
       </c>
       <c r="D15">
-        <v>0.07106036738443322</v>
+        <v>0.08221091678841219</v>
       </c>
       <c r="E15">
-        <v>0.008626668898059187</v>
+        <v>0.01006548808987051</v>
       </c>
       <c r="F15">
-        <v>1.736787682746225</v>
+        <v>1.206200060335661</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750437260645015</v>
+        <v>0.1749824796592776</v>
       </c>
       <c r="I15">
-        <v>0.002196555409255119</v>
+        <v>0.002047902445067251</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>1.020683731311536</v>
+        <v>0.6325038198947439</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2444900898948958</v>
       </c>
       <c r="M15">
-        <v>1.635656867302799</v>
+        <v>0.2357819399787076</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2419180702657719</v>
+        <v>1.690948574394127</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.247513718367113</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.214799183097824</v>
+        <v>1.187148818362374</v>
       </c>
       <c r="C16">
-        <v>0.3430436657266966</v>
+        <v>0.4064253427063704</v>
       </c>
       <c r="D16">
-        <v>0.07042719651091289</v>
+        <v>0.07983095116948391</v>
       </c>
       <c r="E16">
-        <v>0.007465638409996034</v>
+        <v>0.009005353815461081</v>
       </c>
       <c r="F16">
-        <v>1.669785125527071</v>
+        <v>1.171977347900963</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1624631124126097</v>
+        <v>0.1622992006186905</v>
       </c>
       <c r="I16">
-        <v>0.003069616738940795</v>
+        <v>0.002556348844897194</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.9940211806465271</v>
+        <v>0.6275094496561238</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2470797700989991</v>
       </c>
       <c r="M16">
-        <v>1.52932054778168</v>
+        <v>0.2279508993243979</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2296026194097465</v>
+        <v>1.581484091141476</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2348878805212458</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.13974982418614</v>
+        <v>1.112235370207031</v>
       </c>
       <c r="C17">
-        <v>0.3364800333482663</v>
+        <v>0.402001591271187</v>
       </c>
       <c r="D17">
-        <v>0.06901603300097747</v>
+        <v>0.07445406045545866</v>
       </c>
       <c r="E17">
-        <v>0.01264980740122645</v>
+        <v>0.01381753904603311</v>
       </c>
       <c r="F17">
-        <v>1.774360901202215</v>
+        <v>1.242678379920989</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1247764858820943</v>
+        <v>0.1245605347569381</v>
       </c>
       <c r="I17">
-        <v>0.003665169915882061</v>
+        <v>0.002947105287606888</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.076211708534252</v>
+        <v>0.6785276118331254</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2679056031288916</v>
       </c>
       <c r="M17">
-        <v>1.453212518828394</v>
+        <v>0.2445779036473965</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2679367119389724</v>
+        <v>1.505854831118199</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2739506604245108</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.066798805294468</v>
+        <v>1.036611641064951</v>
       </c>
       <c r="C18">
-        <v>0.343023740757161</v>
+        <v>0.4173808736028377</v>
       </c>
       <c r="D18">
-        <v>0.07016317233242431</v>
+        <v>0.06775697367444877</v>
       </c>
       <c r="E18">
-        <v>0.05220699740015178</v>
+        <v>0.05241125938436042</v>
       </c>
       <c r="F18">
-        <v>2.064513940950803</v>
+        <v>1.427556924897999</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07185944304222147</v>
+        <v>0.0716620072390981</v>
       </c>
       <c r="I18">
-        <v>0.003561081486685325</v>
+        <v>0.002771670503917356</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.284411840815068</v>
+        <v>0.796630811963368</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3120708033263924</v>
       </c>
       <c r="M18">
-        <v>1.394090687714794</v>
+        <v>0.2885224130721937</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3659296943062671</v>
+        <v>1.450342039538697</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3738264978071655</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.001406489041585</v>
+        <v>0.9669965325226713</v>
       </c>
       <c r="C19">
-        <v>0.362263066765621</v>
+        <v>0.4503979832961704</v>
       </c>
       <c r="D19">
-        <v>0.07815402781453074</v>
+        <v>0.06379061538593334</v>
       </c>
       <c r="E19">
-        <v>0.159563439216484</v>
+        <v>0.158091124759359</v>
       </c>
       <c r="F19">
-        <v>2.490081651916995</v>
+        <v>1.692547620700211</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02637036642013157</v>
+        <v>0.02626181615197254</v>
       </c>
       <c r="I19">
-        <v>0.003399332430285895</v>
+        <v>0.002778403231286752</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.588563424730822</v>
+        <v>0.9639777882697231</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.37324351274777</v>
       </c>
       <c r="M19">
-        <v>1.355157036818042</v>
+        <v>0.3526641134641793</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5238604319420546</v>
+        <v>1.416772669729255</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.534616495997831</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9607640633468577</v>
+        <v>0.9171842432972142</v>
       </c>
       <c r="C20">
-        <v>0.4128350526193003</v>
+        <v>0.5287234948290802</v>
       </c>
       <c r="D20">
-        <v>0.1045643079625229</v>
+        <v>0.06589909536877459</v>
       </c>
       <c r="E20">
-        <v>0.4490276385497154</v>
+        <v>0.4435146548934483</v>
       </c>
       <c r="F20">
-        <v>3.321655939737923</v>
+        <v>2.197266309126988</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0002630799196254863</v>
+        <v>0.0003470470111701651</v>
       </c>
       <c r="I20">
-        <v>0.002326927209116647</v>
+        <v>0.002241136876157235</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.181544627216184</v>
+        <v>1.279007937953651</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4829262170111477</v>
       </c>
       <c r="M20">
-        <v>1.371391076817986</v>
+        <v>0.4798909842464028</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.844734609578353</v>
+        <v>1.443471398634955</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8608599221704978</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.079058974979688</v>
+        <v>1.02561036948822</v>
       </c>
       <c r="C21">
-        <v>0.4721073570719341</v>
+        <v>0.6068787286804707</v>
       </c>
       <c r="D21">
-        <v>0.1124794609916329</v>
+        <v>0.06750721674661264</v>
       </c>
       <c r="E21">
-        <v>0.5381686982655935</v>
+        <v>0.530190933172868</v>
       </c>
       <c r="F21">
-        <v>3.732668369662917</v>
+        <v>2.42932921248125</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001232399570239462</v>
+        <v>0.001347622557851036</v>
       </c>
       <c r="I21">
-        <v>0.001668650911555325</v>
+        <v>0.002039918213933234</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.436705625729388</v>
+        <v>1.392645141242866</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5080688543598626</v>
       </c>
       <c r="M21">
-        <v>1.548767740591188</v>
+        <v>0.5428734477965307</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9807019086431552</v>
+        <v>1.629486346879787</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9988927079946848</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.161369946246907</v>
+        <v>1.101312474508518</v>
       </c>
       <c r="C22">
-        <v>0.5083325138637065</v>
+        <v>0.6545302000282902</v>
       </c>
       <c r="D22">
-        <v>0.1167662478356561</v>
+        <v>0.06835982584342748</v>
       </c>
       <c r="E22">
-        <v>0.5804999847773828</v>
+        <v>0.570946204477714</v>
       </c>
       <c r="F22">
-        <v>3.983107689666099</v>
+        <v>2.570262566777771</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.002391879151988352</v>
+        <v>0.002456553292939923</v>
       </c>
       <c r="I22">
-        <v>0.00164768447975483</v>
+        <v>0.00205772226843326</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.590773619812992</v>
+        <v>1.460409318322462</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5216240797443703</v>
       </c>
       <c r="M22">
-        <v>1.666822655814201</v>
+        <v>0.5825623348252194</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.054354892760401</v>
+        <v>1.752695525799055</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.073604345122384</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.118253369840005</v>
+        <v>1.061576229944706</v>
       </c>
       <c r="C23">
-        <v>0.4873703029708736</v>
+        <v>0.627540291195487</v>
       </c>
       <c r="D23">
-        <v>0.1152521018588288</v>
+        <v>0.06807630369452866</v>
       </c>
       <c r="E23">
-        <v>0.5580422483379976</v>
+        <v>0.5493041050560876</v>
       </c>
       <c r="F23">
-        <v>3.866712444586454</v>
+        <v>2.506192660534097</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001734375903590379</v>
+        <v>0.001830965249296046</v>
       </c>
       <c r="I23">
-        <v>0.001289479293860474</v>
+        <v>0.001635810419475803</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.522755962219378</v>
+        <v>1.432666221208251</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5173782778481666</v>
       </c>
       <c r="M23">
-        <v>1.602901123378501</v>
+        <v>0.5646632246910954</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.014826131542179</v>
+        <v>1.686164539194863</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.033546669475541</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.954543070500165</v>
+        <v>0.9103894961864967</v>
       </c>
       <c r="C24">
-        <v>0.4121434547830347</v>
+        <v>0.5296418407399699</v>
       </c>
       <c r="D24">
-        <v>0.10810157936114</v>
+        <v>0.06661736508740734</v>
       </c>
       <c r="E24">
-        <v>0.4736829275399401</v>
+        <v>0.4678330346414157</v>
       </c>
       <c r="F24">
-        <v>3.400615327054339</v>
+        <v>2.246707582991419</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0001842466802188802</v>
+        <v>0.0002749947596965008</v>
       </c>
       <c r="I24">
-        <v>0.00178847760891987</v>
+        <v>0.001623035270442941</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.242830004948502</v>
+        <v>1.31373046445637</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4956828035795695</v>
       </c>
       <c r="M24">
-        <v>1.364624813814032</v>
+        <v>0.4931452215234202</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8664803950238067</v>
+        <v>1.437313868664148</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8829985392443831</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7796215040745267</v>
+        <v>0.7479423438309141</v>
       </c>
       <c r="C25">
-        <v>0.3338510248725868</v>
+        <v>0.4274741693920987</v>
       </c>
       <c r="D25">
-        <v>0.1000653263651188</v>
+        <v>0.0647978322819065</v>
       </c>
       <c r="E25">
-        <v>0.3844229915457689</v>
+        <v>0.3812114976834167</v>
       </c>
       <c r="F25">
-        <v>2.903518063671839</v>
+        <v>1.969216540818834</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0003142757408665098</v>
+        <v>0.0001616428155553074</v>
       </c>
       <c r="I25">
-        <v>0.004969149246655036</v>
+        <v>0.003571182614143353</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.942574394624614</v>
+        <v>1.184973604792376</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4704368650619415</v>
       </c>
       <c r="M25">
-        <v>1.111939404512469</v>
+        <v>0.4197074373701284</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7082960254381163</v>
+        <v>1.172352246870503</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7221825530407671</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
